--- a/Comparison.xlsx
+++ b/Comparison.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i827440\Desktop\trab_ia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i844796\Documents\GitHub\trab_ia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11025" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11025" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Detalhes" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="158">
   <si>
     <t>Ecosport 1.6 SE (Flex) 2017</t>
   </si>
@@ -498,6 +498,12 @@
   </si>
   <si>
     <t>Família</t>
+  </si>
+  <si>
+    <t>Potencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design </t>
   </si>
 </sst>
 </file>
@@ -507,7 +513,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -842,7 +848,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -951,24 +957,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1058,6 +1046,26 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1065,6 +1073,73 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="49">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1168,831 +1243,6 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="10.5"/>
         <color rgb="FF444444"/>
         <name val="Calibri"/>
@@ -2474,6 +1724,652 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -2540,6 +2436,120 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -5276,60 +5286,64 @@
     <tableColumn id="2" name="Modelo" dataDxfId="44"/>
     <tableColumn id="3" name="Valor" dataDxfId="43"/>
     <tableColumn id="4" name="Avaliação" dataDxfId="42"/>
-    <tableColumn id="5" name="Airbag lateral" dataDxfId="24"/>
-    <tableColumn id="6" name="Airbag motorista" dataDxfId="23"/>
-    <tableColumn id="7" name="Airbag passageiro" dataDxfId="22"/>
-    <tableColumn id="8" name="Alarme" dataDxfId="41"/>
-    <tableColumn id="9" name="Controle de tração" dataDxfId="40"/>
-    <tableColumn id="10" name="Distribuição eletrônica de frenagem" dataDxfId="21"/>
-    <tableColumn id="11" name="Freios ABS" dataDxfId="20"/>
-    <tableColumn id="12" name="Ar-condicionado" dataDxfId="6"/>
-    <tableColumn id="13" name="Piloto automático" dataDxfId="4"/>
-    <tableColumn id="14" name="Travas elétricas" dataDxfId="7"/>
-    <tableColumn id="15" name="Volante com regulagem de altura" dataDxfId="8"/>
-    <tableColumn id="16" name="Cd player" dataDxfId="9"/>
-    <tableColumn id="17" name="Cd player com MP3" dataDxfId="10"/>
-    <tableColumn id="18" name="Entrada USB" dataDxfId="12"/>
-    <tableColumn id="19" name="Rádio FM/AM" dataDxfId="11"/>
-    <tableColumn id="20" name="Ajuste elétrico" dataDxfId="13"/>
-    <tableColumn id="21" name="Bancos de couro" dataDxfId="14"/>
-    <tableColumn id="22" name="Desemb. traseiro" dataDxfId="15"/>
-    <tableColumn id="23" name="Teto solar" dataDxfId="16"/>
-    <tableColumn id="24" name="Vidros elétricos dianteiros" dataDxfId="17"/>
-    <tableColumn id="25" name="Vidros elétricos traseiros" dataDxfId="18"/>
-    <tableColumn id="26" name="Computador de bordo" dataDxfId="19"/>
-    <tableColumn id="27" name="Farol de neblina" dataDxfId="39"/>
-    <tableColumn id="28" name="Sensor de farol" dataDxfId="38"/>
-    <tableColumn id="29" name="Motorização" dataDxfId="37"/>
-    <tableColumn id="30" name="Direção" dataDxfId="36"/>
-    <tableColumn id="31" name="Câmbio" dataDxfId="35"/>
-    <tableColumn id="32" name="Combustível" dataDxfId="34"/>
-    <tableColumn id="33" name="Potência(cv)" dataDxfId="33"/>
-    <tableColumn id="34" name="Torque (kgf.m)" dataDxfId="32"/>
-    <tableColumn id="35" name="Velocidade Máxima (km/h)" dataDxfId="31"/>
-    <tableColumn id="36" name="Tempo 0-100 (s)" dataDxfId="30"/>
-    <tableColumn id="37" name="Consumo cidade (km/l)" dataDxfId="29"/>
-    <tableColumn id="38" name="Consumo estrada (km/l)" dataDxfId="28"/>
-    <tableColumn id="39" name="Custo50" dataDxfId="3" dataCellStyle="Percent">
+    <tableColumn id="5" name="Airbag lateral" dataDxfId="41"/>
+    <tableColumn id="6" name="Airbag motorista" dataDxfId="40"/>
+    <tableColumn id="7" name="Airbag passageiro" dataDxfId="39"/>
+    <tableColumn id="8" name="Alarme" dataDxfId="38"/>
+    <tableColumn id="9" name="Controle de tração" dataDxfId="37"/>
+    <tableColumn id="10" name="Distribuição eletrônica de frenagem" dataDxfId="36"/>
+    <tableColumn id="11" name="Freios ABS" dataDxfId="35"/>
+    <tableColumn id="12" name="Ar-condicionado" dataDxfId="34"/>
+    <tableColumn id="13" name="Piloto automático" dataDxfId="33"/>
+    <tableColumn id="14" name="Travas elétricas" dataDxfId="32"/>
+    <tableColumn id="15" name="Volante com regulagem de altura" dataDxfId="31"/>
+    <tableColumn id="16" name="Cd player" dataDxfId="30"/>
+    <tableColumn id="17" name="Cd player com MP3" dataDxfId="29"/>
+    <tableColumn id="18" name="Entrada USB" dataDxfId="28"/>
+    <tableColumn id="19" name="Rádio FM/AM" dataDxfId="27"/>
+    <tableColumn id="20" name="Ajuste elétrico" dataDxfId="26"/>
+    <tableColumn id="21" name="Bancos de couro" dataDxfId="25"/>
+    <tableColumn id="22" name="Desemb. traseiro" dataDxfId="24"/>
+    <tableColumn id="23" name="Teto solar" dataDxfId="23"/>
+    <tableColumn id="24" name="Vidros elétricos dianteiros" dataDxfId="22"/>
+    <tableColumn id="25" name="Vidros elétricos traseiros" dataDxfId="21"/>
+    <tableColumn id="26" name="Computador de bordo" dataDxfId="20"/>
+    <tableColumn id="27" name="Farol de neblina" dataDxfId="19"/>
+    <tableColumn id="28" name="Sensor de farol" dataDxfId="18"/>
+    <tableColumn id="29" name="Motorização" dataDxfId="17"/>
+    <tableColumn id="30" name="Direção" dataDxfId="16"/>
+    <tableColumn id="31" name="Câmbio" dataDxfId="15"/>
+    <tableColumn id="32" name="Combustível" dataDxfId="14"/>
+    <tableColumn id="33" name="Potência(cv)" dataDxfId="13"/>
+    <tableColumn id="34" name="Torque (kgf.m)" dataDxfId="12"/>
+    <tableColumn id="35" name="Velocidade Máxima (km/h)" dataDxfId="11"/>
+    <tableColumn id="36" name="Tempo 0-100 (s)" dataDxfId="10"/>
+    <tableColumn id="37" name="Consumo cidade (km/l)" dataDxfId="9"/>
+    <tableColumn id="38" name="Consumo estrada (km/l)" dataDxfId="8"/>
+    <tableColumn id="39" name="Custo50" dataDxfId="7" dataCellStyle="Percent">
       <calculatedColumnFormula>MIN(1,(50000/$C2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" name="Custo100" dataDxfId="2" dataCellStyle="Percent">
+    <tableColumn id="40" name="Custo100" dataDxfId="6" dataCellStyle="Percent">
       <calculatedColumnFormula>MIN(1,(100000/$C2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="41" name="Custo150" dataDxfId="1" dataCellStyle="Percent">
+    <tableColumn id="41" name="Custo150" dataDxfId="5" dataCellStyle="Percent">
       <calculatedColumnFormula>MIN(1,(150000/$C2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="42" name="Custo150+" dataDxfId="0" dataCellStyle="Percent">
+    <tableColumn id="42" name="Custo150+" dataDxfId="4" dataCellStyle="Percent">
       <calculatedColumnFormula>MIN(1,(150000/$C2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="44" name="Segurança" dataDxfId="25">
+    <tableColumn id="44" name="Segurança" dataDxfId="3">
       <calculatedColumnFormula>(IF($E2="X",20,0)+IF($F2="X",20,0)+IF($G2="X",20,0)+IF($J2="X",20,0)+IF($K2="X",20,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="43" name="Conforto" dataDxfId="5" dataCellStyle="Percent">
+    <tableColumn id="43" name="Conforto" dataDxfId="2" dataCellStyle="Percent">
       <calculatedColumnFormula>(IF($L2="X",1,0)+IF($M2="X",1,0)+IF($N2="X",1,0)+IF($O2="X",1,0)+IF($P2="X",1,0)+IF($Q2="X",1,0)+IF($R2="X",1,0)+IF($S2="X",1,0)+IF($T2="X",1,0)+IF($U2="X",1,0)+IF($V2="X",1,0)+IF($W2="X",1,0)+IF($X2="X",1,0)+IF($Y2="X",1,0)+IF($Z2="X",1,0))*(1/13)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="45" name="Cidade" dataDxfId="27" dataCellStyle="Percent"/>
-    <tableColumn id="46" name="Campo" dataDxfId="26" dataCellStyle="Percent"/>
+    <tableColumn id="45" name="Cidade" dataDxfId="1" dataCellStyle="Percent">
+      <calculatedColumnFormula>(IF($AK2="X",1,0) + $AK2 * 0.1) *(1/1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="46" name="Campo" dataDxfId="0" dataCellStyle="Percent">
+      <calculatedColumnFormula>(IF($I2="X",1,0)+IF($AA2="X",1,0)+IF($AF2="Diesel",1,0.3) + ($AH2/45))*(1/4)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5600,11 +5614,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
@@ -5626,8 +5640,8 @@
     <col min="22" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:23" ht="60">
+      <c r="A1" s="78" t="s">
         <v>145</v>
       </c>
       <c r="B1" s="22" t="s">
@@ -5697,8 +5711,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
+    <row r="2" spans="1:23" ht="38.25">
+      <c r="A2" s="79"/>
       <c r="B2" s="1" t="s">
         <v>140</v>
       </c>
@@ -5766,8 +5780,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+    <row r="3" spans="1:23">
+      <c r="A3" s="79"/>
       <c r="B3" s="29"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -5791,8 +5805,8 @@
       <c r="V3" s="30"/>
       <c r="W3" s="31"/>
     </row>
-    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
+    <row r="4" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A4" s="80"/>
       <c r="B4" s="32"/>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
@@ -5816,8 +5830,8 @@
       <c r="V4" s="33"/>
       <c r="W4" s="34"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:23">
+      <c r="A5" s="78" t="s">
         <v>143</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -5887,8 +5901,8 @@
         <v>112655</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
+    <row r="6" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A6" s="80"/>
       <c r="B6" s="25" t="s">
         <v>142</v>
       </c>
@@ -5956,8 +5970,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:23" ht="25.5">
+      <c r="A7" s="78" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -5993,8 +6007,8 @@
       <c r="V7" s="15"/>
       <c r="W7" s="16"/>
     </row>
-    <row r="8" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+    <row r="8" spans="1:23" ht="25.5">
+      <c r="A8" s="79"/>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
@@ -6056,8 +6070,8 @@
       </c>
       <c r="W8" s="17"/>
     </row>
-    <row r="9" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+    <row r="9" spans="1:23" ht="25.5">
+      <c r="A9" s="79"/>
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
@@ -6121,8 +6135,8 @@
       </c>
       <c r="W9" s="17"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+    <row r="10" spans="1:23">
+      <c r="A10" s="79"/>
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
@@ -6172,8 +6186,8 @@
       </c>
       <c r="W10" s="17"/>
     </row>
-    <row r="11" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
+    <row r="11" spans="1:23" ht="25.5">
+      <c r="A11" s="79"/>
       <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
@@ -6207,8 +6221,8 @@
       <c r="V11" s="6"/>
       <c r="W11" s="17"/>
     </row>
-    <row r="12" spans="1:23" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
+    <row r="12" spans="1:23" ht="63.75">
+      <c r="A12" s="79"/>
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
@@ -6272,8 +6286,8 @@
       <c r="V12" s="6"/>
       <c r="W12" s="17"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
+    <row r="13" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A13" s="80"/>
       <c r="B13" s="18" t="s">
         <v>29</v>
       </c>
@@ -6341,8 +6355,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+    <row r="14" spans="1:23" ht="38.25">
+      <c r="A14" s="75" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="14" t="s">
@@ -6412,8 +6426,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+    <row r="15" spans="1:23" ht="38.25">
+      <c r="A15" s="76"/>
       <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
@@ -6455,8 +6469,8 @@
       <c r="V15" s="6"/>
       <c r="W15" s="17"/>
     </row>
-    <row r="16" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+    <row r="16" spans="1:23" ht="25.5">
+      <c r="A16" s="76"/>
       <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
@@ -6518,8 +6532,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
+    <row r="17" spans="1:23" ht="64.5" thickBot="1">
+      <c r="A17" s="77"/>
       <c r="B17" s="18" t="s">
         <v>34</v>
       </c>
@@ -6581,8 +6595,8 @@
       </c>
       <c r="W17" s="21"/>
     </row>
-    <row r="18" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+    <row r="18" spans="1:23" ht="30.75" customHeight="1">
+      <c r="A18" s="75" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -6644,8 +6658,8 @@
       </c>
       <c r="W18" s="16"/>
     </row>
-    <row r="19" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+    <row r="19" spans="1:23" ht="25.5">
+      <c r="A19" s="76"/>
       <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
@@ -6705,8 +6719,8 @@
       </c>
       <c r="W19" s="17"/>
     </row>
-    <row r="20" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+    <row r="20" spans="1:23" ht="25.5">
+      <c r="A20" s="76"/>
       <c r="B20" s="2" t="s">
         <v>38</v>
       </c>
@@ -6764,8 +6778,8 @@
       </c>
       <c r="W20" s="17"/>
     </row>
-    <row r="21" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42"/>
+    <row r="21" spans="1:23" ht="26.25" thickBot="1">
+      <c r="A21" s="77"/>
       <c r="B21" s="18" t="s">
         <v>39</v>
       </c>
@@ -6829,8 +6843,8 @@
       </c>
       <c r="W21" s="21"/>
     </row>
-    <row r="22" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+    <row r="22" spans="1:23" ht="25.5">
+      <c r="A22" s="75" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -6864,8 +6878,8 @@
       <c r="V22" s="15"/>
       <c r="W22" s="16"/>
     </row>
-    <row r="23" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
+    <row r="23" spans="1:23" ht="26.25" thickBot="1">
+      <c r="A23" s="77"/>
       <c r="B23" s="18" t="s">
         <v>42</v>
       </c>
@@ -6897,8 +6911,8 @@
       <c r="V23" s="19"/>
       <c r="W23" s="21"/>
     </row>
-    <row r="24" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
+    <row r="24" spans="1:23" ht="25.5">
+      <c r="A24" s="75" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="14" t="s">
@@ -6966,8 +6980,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
+    <row r="25" spans="1:23">
+      <c r="A25" s="76"/>
       <c r="B25" s="2" t="s">
         <v>45</v>
       </c>
@@ -6995,8 +7009,8 @@
       <c r="V25" s="6"/>
       <c r="W25" s="17"/>
     </row>
-    <row r="26" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
+    <row r="26" spans="1:23" ht="38.25">
+      <c r="A26" s="76"/>
       <c r="B26" s="2" t="s">
         <v>46</v>
       </c>
@@ -7060,8 +7074,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
+    <row r="27" spans="1:23" ht="39" thickBot="1">
+      <c r="A27" s="77"/>
       <c r="B27" s="18" t="s">
         <v>47</v>
       </c>
@@ -7119,8 +7133,8 @@
       </c>
       <c r="W27" s="21"/>
     </row>
-    <row r="28" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
+    <row r="28" spans="1:23" ht="38.25">
+      <c r="A28" s="75" t="s">
         <v>48</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -7178,8 +7192,8 @@
       <c r="V28" s="15"/>
       <c r="W28" s="16"/>
     </row>
-    <row r="29" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
+    <row r="29" spans="1:23" ht="25.5">
+      <c r="A29" s="76"/>
       <c r="B29" s="2" t="s">
         <v>50</v>
       </c>
@@ -7233,8 +7247,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="42"/>
+    <row r="30" spans="1:23" ht="26.25" thickBot="1">
+      <c r="A30" s="77"/>
       <c r="B30" s="18" t="s">
         <v>51</v>
       </c>
@@ -7274,8 +7288,8 @@
       <c r="V30" s="19"/>
       <c r="W30" s="20"/>
     </row>
-    <row r="31" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
+    <row r="31" spans="1:23" ht="25.5">
+      <c r="A31" s="75" t="s">
         <v>74</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -7345,8 +7359,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
+    <row r="32" spans="1:23">
+      <c r="A32" s="76"/>
       <c r="B32" s="3" t="s">
         <v>84</v>
       </c>
@@ -7414,8 +7428,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
+    <row r="33" spans="1:23" ht="71.25">
+      <c r="A33" s="76"/>
       <c r="B33" s="3" t="s">
         <v>87</v>
       </c>
@@ -7483,8 +7497,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
+    <row r="34" spans="1:23" ht="25.5">
+      <c r="A34" s="76"/>
       <c r="B34" s="3" t="s">
         <v>94</v>
       </c>
@@ -7552,8 +7566,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
+    <row r="35" spans="1:23" ht="25.5">
+      <c r="A35" s="76"/>
       <c r="B35" s="3" t="s">
         <v>97</v>
       </c>
@@ -7621,8 +7635,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
+    <row r="36" spans="1:23" ht="25.5">
+      <c r="A36" s="76"/>
       <c r="B36" s="3" t="s">
         <v>114</v>
       </c>
@@ -7690,8 +7704,8 @@
         <v>47.9</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
+    <row r="37" spans="1:23" ht="38.25">
+      <c r="A37" s="76"/>
       <c r="B37" s="3" t="s">
         <v>115</v>
       </c>
@@ -7759,8 +7773,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
+    <row r="38" spans="1:23" ht="25.5">
+      <c r="A38" s="76"/>
       <c r="B38" s="3" t="s">
         <v>116</v>
       </c>
@@ -7828,8 +7842,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
+    <row r="39" spans="1:23" ht="38.25">
+      <c r="A39" s="76"/>
       <c r="B39" s="3" t="s">
         <v>125</v>
       </c>
@@ -7842,8 +7856,8 @@
       <c r="E39" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>21</v>
+      <c r="F39" s="5">
+        <v>10</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>126</v>
@@ -7897,8 +7911,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="42"/>
+    <row r="40" spans="1:23" ht="39" thickBot="1">
+      <c r="A40" s="77"/>
       <c r="B40" s="11" t="s">
         <v>132</v>
       </c>
@@ -7911,8 +7925,8 @@
       <c r="E40" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="12" t="s">
-        <v>21</v>
+      <c r="F40" s="12">
+        <v>12</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>134</v>
@@ -7985,35 +7999,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU21"/>
+  <dimension ref="A1:AV21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="21000" topLeftCell="AQ1"/>
-      <selection activeCell="AP5" sqref="AP5"/>
-      <selection pane="topRight" activeCell="AR2" sqref="AR2"/>
+    <sheetView topLeftCell="AL6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="21075" topLeftCell="AS1"/>
+      <selection activeCell="AS6" sqref="AS6"/>
+      <selection pane="topRight" activeCell="AU2" sqref="AU2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="49" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="49" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="49" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="43" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="43" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="43" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="31" style="49" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="49" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="62" customWidth="1"/>
-    <col min="13" max="13" width="17" style="71" customWidth="1"/>
-    <col min="14" max="14" width="15" style="62" customWidth="1"/>
-    <col min="15" max="15" width="29.140625" style="62" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" style="62" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" style="62" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="62" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" style="62" customWidth="1"/>
-    <col min="20" max="26" width="24.7109375" style="62" customWidth="1"/>
+    <col min="10" max="10" width="31" style="43" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="43" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="56" customWidth="1"/>
+    <col min="13" max="13" width="17" style="65" customWidth="1"/>
+    <col min="14" max="14" width="15" style="56" customWidth="1"/>
+    <col min="15" max="15" width="29.140625" style="56" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" style="56" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" style="56" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="56" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" style="56" customWidth="1"/>
+    <col min="20" max="26" width="24.7109375" style="56" customWidth="1"/>
     <col min="27" max="27" width="15.5703125" customWidth="1"/>
     <col min="28" max="28" width="14.85546875" customWidth="1"/>
     <col min="29" max="29" width="12.7109375" customWidth="1"/>
@@ -8024,15 +8038,17 @@
     <col min="36" max="36" width="15.85546875" customWidth="1"/>
     <col min="37" max="37" width="21.140625" customWidth="1"/>
     <col min="38" max="38" width="22" customWidth="1"/>
-    <col min="39" max="39" width="13.85546875" style="77" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.42578125" style="77" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.5703125" style="77" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.7109375" style="77" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11" style="49" customWidth="1"/>
-    <col min="44" max="44" width="9.140625" style="71"/>
+    <col min="39" max="39" width="13.85546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.42578125" style="71" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.5703125" style="71" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.7109375" style="71" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11" style="43" customWidth="1"/>
+    <col min="44" max="44" width="9.140625" style="65"/>
+    <col min="47" max="47" width="9.140625" style="82"/>
+    <col min="48" max="48" width="10" style="82" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" ht="46.5" customHeight="1" thickBot="1">
       <c r="A1" s="37" t="s">
         <v>144</v>
       </c>
@@ -8045,13 +8061,13 @@
       <c r="D1" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="45" t="s">
         <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -8060,55 +8076,55 @@
       <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="72" t="s">
+      <c r="M1" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="66" t="s">
+      <c r="N1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="63" t="s">
+      <c r="O1" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="59" t="s">
+      <c r="P1" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="66" t="s">
+      <c r="Q1" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="R1" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="63" t="s">
+      <c r="S1" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="59" t="s">
+      <c r="T1" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="63" t="s">
+      <c r="U1" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="59" t="s">
+      <c r="V1" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="66" t="s">
+      <c r="W1" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="X1" s="66" t="s">
+      <c r="X1" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" s="63" t="s">
+      <c r="Y1" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" s="59" t="s">
+      <c r="Z1" s="53" t="s">
         <v>49</v>
       </c>
       <c r="AA1" s="2" t="s">
@@ -8147,35 +8163,38 @@
       <c r="AL1" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="AM1" s="76" t="s">
+      <c r="AM1" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="AN1" s="80" t="s">
+      <c r="AN1" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="AO1" s="78" t="s">
+      <c r="AO1" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="AP1" s="78" t="s">
+      <c r="AP1" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="AQ1" s="48" t="s">
+      <c r="AQ1" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AR1" s="69" t="s">
+      <c r="AR1" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="AS1" s="47" t="s">
+      <c r="AS1" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="AT1" s="47" t="s">
+      <c r="AT1" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="82" t="s">
         <v>155</v>
       </c>
+      <c r="AV1" s="82" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="2" spans="1:47" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:48" ht="114.75" thickBot="1">
       <c r="A2" s="38" t="s">
         <v>3</v>
       </c>
@@ -8188,13 +8207,13 @@
       <c r="D2" s="12">
         <v>8.4</v>
       </c>
-      <c r="E2" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="53" t="s">
+      <c r="E2" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="47" t="s">
         <v>73</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -8203,51 +8222,51 @@
       <c r="I2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="L2" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="N2" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="O2" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="P2" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q2" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="R2" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="S2" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="T2" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="U2" s="75"/>
-      <c r="V2" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="W2" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="X2" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="60" t="s">
+      <c r="J2" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="R2" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="S2" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="T2" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="U2" s="69"/>
+      <c r="V2" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="W2" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="X2" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="54" t="s">
         <v>73</v>
       </c>
       <c r="AA2" s="6" t="s">
@@ -8268,8 +8287,8 @@
       <c r="AF2" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AG2" s="5" t="s">
-        <v>101</v>
+      <c r="AG2" s="5">
+        <v>150</v>
       </c>
       <c r="AH2" s="5">
         <v>25.5</v>
@@ -8280,40 +8299,54 @@
       <c r="AJ2" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="AK2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM2" s="79">
+      <c r="AK2" s="5">
+        <v>10.7</v>
+      </c>
+      <c r="AL2" s="12">
+        <v>12.5</v>
+      </c>
+      <c r="AM2" s="73">
         <f>MIN(1,(50000/$C2)^2)</f>
         <v>0.13321780614135259</v>
       </c>
-      <c r="AN2" s="79">
+      <c r="AN2" s="73">
         <f>MIN(1,(100000/$C2)^2)</f>
         <v>0.53287122456541036</v>
       </c>
-      <c r="AO2" s="79">
+      <c r="AO2" s="73">
         <f>MIN(1,(150000/$C2)^2)</f>
         <v>1</v>
       </c>
-      <c r="AP2" s="79">
+      <c r="AP2" s="73">
         <f>MIN(1,(150000/$C2)^2)</f>
         <v>1</v>
       </c>
-      <c r="AQ2" s="49">
+      <c r="AQ2" s="43">
         <f>(IF($E2="X",20,0)+IF($F2="X",20,0)+IF($G2="X",20,0)+IF($J2="X",20,0)+IF($K2="X",20,0))</f>
         <v>100</v>
       </c>
-      <c r="AR2" s="70">
+      <c r="AR2" s="64">
         <f>(IF($L2="X",1,0)+IF($M2="X",1,0)+IF($N2="X",1,0)+IF($O2="X",1,0)+IF($P2="X",1,0)+IF($Q2="X",1,0)+IF($R2="X",1,0)+IF($S2="X",1,0)+IF($T2="X",1,0)+IF($U2="X",1,0)+IF($V2="X",1,0)+IF($W2="X",1,0)+IF($X2="X",1,0)+IF($Y2="X",1,0)+IF($Z2="X",1,0))*(1/13)</f>
         <v>1</v>
       </c>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
+      <c r="AS2" s="40">
+        <f t="shared" ref="AS2:AS21" si="0">(IF($AK2="X",1,0) + $AK2 * 0.1) *(1/1)</f>
+        <v>1.07</v>
+      </c>
+      <c r="AT2" s="81">
+        <f t="shared" ref="AT2:AT21" si="1">(IF($I2="X",1,0)+IF($AA2="X",1,0)+IF($AF2="Diesel",1,0.3) + ($AH2/45))*(1/4)</f>
+        <v>0.71666666666666656</v>
+      </c>
+      <c r="AU2" s="82">
+        <f>(IF($H2="X",1,0)+IF($AA2="X",1,0)+ IF($AB2="X",1,0) + ($AQ2 / 100) + ($AR2 ) + ($AS2 ) ) / 6</f>
+        <v>1.0116666666666667</v>
+      </c>
+      <c r="AV2" s="82">
+        <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
+        <v>0.65833333333333333</v>
+      </c>
     </row>
-    <row r="3" spans="1:47" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" ht="43.5" thickBot="1">
       <c r="A3" s="38" t="s">
         <v>4</v>
       </c>
@@ -8326,54 +8359,54 @@
       <c r="D3" s="12">
         <v>8.4</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53" t="s">
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47" t="s">
         <v>73</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>73</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="O3" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="P3" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q3" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="R3" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="S3" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="T3" s="60"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="60" t="s">
+      <c r="J3" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="67"/>
+      <c r="N3" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q3" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="R3" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="S3" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="T3" s="54"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="54" t="s">
         <v>73</v>
       </c>
       <c r="AA3" s="6" t="s">
@@ -8392,8 +8425,8 @@
       <c r="AF3" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AG3" s="5" t="s">
-        <v>102</v>
+      <c r="AG3" s="5">
+        <v>138</v>
       </c>
       <c r="AH3" s="5">
         <v>18.600000000000001</v>
@@ -8404,40 +8437,54 @@
       <c r="AJ3" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="AK3" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL3" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM3" s="79">
-        <f t="shared" ref="AM3:AM21" si="0">MIN(1,(50000/$C3)^2)</f>
+      <c r="AK3" s="5">
+        <v>7.9</v>
+      </c>
+      <c r="AL3" s="12">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AM3" s="73">
+        <f t="shared" ref="AM3:AM21" si="2">MIN(1,(50000/$C3)^2)</f>
         <v>0.87704154661575795</v>
       </c>
-      <c r="AN3" s="79">
-        <f t="shared" ref="AN3:AN21" si="1">MIN(1,(100000/$C3)^2)</f>
+      <c r="AN3" s="73">
+        <f t="shared" ref="AN3:AN21" si="3">MIN(1,(100000/$C3)^2)</f>
         <v>1</v>
       </c>
-      <c r="AO3" s="79">
-        <f t="shared" ref="AO3:AP21" si="2">MIN(1,(150000/$C3)^2)</f>
+      <c r="AO3" s="73">
+        <f t="shared" ref="AO3:AP21" si="4">MIN(1,(150000/$C3)^2)</f>
         <v>1</v>
       </c>
-      <c r="AP3" s="79">
-        <f t="shared" si="2"/>
+      <c r="AP3" s="73">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AQ3" s="49">
-        <f t="shared" ref="AQ3:AQ21" si="3">(IF($E3="X",20,0)+IF($F3="X",20,0)+IF($G3="X",20,0)+IF($J3="X",20,0)+IF($K3="X",20,0))</f>
+      <c r="AQ3" s="43">
+        <f t="shared" ref="AQ3:AQ21" si="5">(IF($E3="X",20,0)+IF($F3="X",20,0)+IF($G3="X",20,0)+IF($J3="X",20,0)+IF($K3="X",20,0))</f>
         <v>60</v>
       </c>
-      <c r="AR3" s="70">
-        <f t="shared" ref="AR3:AR21" si="4">(IF($L3="X",1,0)+IF($M3="X",1,0)+IF($N3="X",1,0)+IF($O3="X",1,0)+IF($P3="X",1,0)+IF($Q3="X",1,0)+IF($R3="X",1,0)+IF($S3="X",1,0)+IF($T3="X",1,0)+IF($U3="X",1,0)+IF($V3="X",1,0)+IF($W3="X",1,0)+IF($X3="X",1,0)+IF($Y3="X",1,0)+IF($Z3="X",1,0))*(1/13)</f>
+      <c r="AR3" s="64">
+        <f t="shared" ref="AR3:AR21" si="6">(IF($L3="X",1,0)+IF($M3="X",1,0)+IF($N3="X",1,0)+IF($O3="X",1,0)+IF($P3="X",1,0)+IF($Q3="X",1,0)+IF($R3="X",1,0)+IF($S3="X",1,0)+IF($T3="X",1,0)+IF($U3="X",1,0)+IF($V3="X",1,0)+IF($W3="X",1,0)+IF($X3="X",1,0)+IF($Y3="X",1,0)+IF($Z3="X",1,0))*(1/13)</f>
         <v>0.76923076923076927</v>
       </c>
-      <c r="AS3" s="46"/>
-      <c r="AT3" s="46"/>
+      <c r="AS3" s="40">
+        <f t="shared" si="0"/>
+        <v>0.79</v>
+      </c>
+      <c r="AT3" s="40">
+        <f t="shared" si="1"/>
+        <v>0.42833333333333334</v>
+      </c>
+      <c r="AU3" s="82">
+        <f t="shared" ref="AU3:AU21" si="7">(IF($H3="X",1,0)+IF($AA3="X",1,0)+ IF($AB3="X",1,0) + ($AQ3 / 100) + ($AR3 ) + ($AS3 ) ) / 6</f>
+        <v>0.69320512820512814</v>
+      </c>
+      <c r="AV3" s="82">
+        <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
+        <v>0.55166666666666664</v>
+      </c>
     </row>
-    <row r="4" spans="1:47" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:48" ht="105.75" thickBot="1">
       <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
@@ -8450,56 +8497,56 @@
       <c r="D4" s="12">
         <v>7.5</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="53" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="47" t="s">
         <v>73</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>73</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="K4" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" s="73"/>
-      <c r="N4" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="O4" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q4" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="R4" s="67"/>
-      <c r="S4" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="T4" s="60"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y4" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z4" s="60" t="s">
+      <c r="J4" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" s="67"/>
+      <c r="N4" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="R4" s="61"/>
+      <c r="S4" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="T4" s="54"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z4" s="54" t="s">
         <v>73</v>
       </c>
       <c r="AA4" s="6" t="s">
@@ -8518,8 +8565,8 @@
       <c r="AF4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AG4" s="5" t="s">
-        <v>103</v>
+      <c r="AG4" s="5">
+        <v>140</v>
       </c>
       <c r="AH4" s="5">
         <v>17.8</v>
@@ -8530,40 +8577,54 @@
       <c r="AJ4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AK4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM4" s="79">
+      <c r="AK4" s="5">
+        <v>9.5</v>
+      </c>
+      <c r="AL4" s="12">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AM4" s="73">
+        <f t="shared" si="2"/>
+        <v>0.41313545334948004</v>
+      </c>
+      <c r="AN4" s="73">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AO4" s="73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AP4" s="73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="43">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="AR4" s="64">
+        <f t="shared" si="6"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="AS4" s="40">
         <f t="shared" si="0"/>
-        <v>0.41313545334948004</v>
-      </c>
-      <c r="AN4" s="79">
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="AT4" s="40">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AO4" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AP4" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="49">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="AR4" s="70">
-        <f t="shared" si="4"/>
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
+        <v>0.42388888888888887</v>
+      </c>
+      <c r="AU4" s="82">
+        <f t="shared" si="7"/>
+        <v>0.75320512820512819</v>
+      </c>
+      <c r="AV4" s="82">
+        <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
+        <v>0.5477777777777777</v>
+      </c>
     </row>
-    <row r="5" spans="1:47" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" ht="75.75" thickBot="1">
       <c r="A5" s="38" t="s">
         <v>6</v>
       </c>
@@ -8576,46 +8637,46 @@
       <c r="D5" s="12">
         <v>7.4</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="53" t="s">
+      <c r="E5" s="46"/>
+      <c r="F5" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="47" t="s">
         <v>73</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" s="64"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y5" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z5" s="60" t="s">
+      <c r="J5" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="67"/>
+      <c r="N5" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" s="58"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y5" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z5" s="54" t="s">
         <v>73</v>
       </c>
       <c r="AA5" s="6"/>
@@ -8632,8 +8693,8 @@
       <c r="AF5" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AG5" s="5" t="s">
-        <v>104</v>
+      <c r="AG5" s="5">
+        <v>89</v>
       </c>
       <c r="AH5" s="5">
         <v>13.5</v>
@@ -8644,40 +8705,54 @@
       <c r="AJ5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AK5" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL5" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="AM5" s="79">
+      <c r="AK5" s="5">
+        <v>10.3</v>
+      </c>
+      <c r="AL5" s="12">
+        <v>11.6</v>
+      </c>
+      <c r="AM5" s="73">
+        <f t="shared" si="2"/>
+        <v>0.98068440081418784</v>
+      </c>
+      <c r="AN5" s="73">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AO5" s="73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AP5" s="73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="43">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="AR5" s="64">
+        <f t="shared" si="6"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="AS5" s="40">
         <f t="shared" si="0"/>
-        <v>0.98068440081418784</v>
-      </c>
-      <c r="AN5" s="79">
+        <v>1.03</v>
+      </c>
+      <c r="AT5" s="40">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AO5" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AP5" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="49">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="AR5" s="70">
-        <f t="shared" si="4"/>
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="AS5" s="46"/>
-      <c r="AT5" s="46"/>
+        <v>0.15</v>
+      </c>
+      <c r="AU5" s="82">
+        <f t="shared" si="7"/>
+        <v>0.38192307692307698</v>
+      </c>
+      <c r="AV5" s="82">
+        <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
+        <v>0.3725</v>
+      </c>
     </row>
-    <row r="6" spans="1:47" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" ht="86.25" thickBot="1">
       <c r="A6" s="38" t="s">
         <v>7</v>
       </c>
@@ -8690,13 +8765,13 @@
       <c r="D6" s="12">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E6" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="53" t="s">
+      <c r="E6" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="47" t="s">
         <v>73</v>
       </c>
       <c r="H6" s="6" t="s">
@@ -8705,51 +8780,51 @@
       <c r="I6" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="L6" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="N6" s="67"/>
-      <c r="O6" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="P6" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q6" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="R6" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="S6" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="T6" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="U6" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="V6" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="W6" s="67"/>
-      <c r="X6" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y6" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z6" s="60" t="s">
+      <c r="J6" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" s="61"/>
+      <c r="O6" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="R6" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="S6" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="T6" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="U6" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="V6" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y6" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z6" s="54" t="s">
         <v>73</v>
       </c>
       <c r="AA6" s="6" t="s">
@@ -8770,8 +8845,8 @@
       <c r="AF6" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AG6" s="5" t="s">
-        <v>105</v>
+      <c r="AG6" s="5">
+        <v>280</v>
       </c>
       <c r="AH6" s="5">
         <v>34.9</v>
@@ -8782,40 +8857,54 @@
       <c r="AJ6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AK6" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AL6" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM6" s="79">
-        <f t="shared" si="0"/>
+      <c r="AK6" s="5">
+        <v>6.1</v>
+      </c>
+      <c r="AL6" s="12">
+        <v>7.4</v>
+      </c>
+      <c r="AM6" s="73">
+        <f t="shared" si="2"/>
         <v>0.1739008250550744</v>
       </c>
-      <c r="AN6" s="79">
-        <f t="shared" si="1"/>
+      <c r="AN6" s="73">
+        <f t="shared" si="3"/>
         <v>0.69560330022029759</v>
       </c>
-      <c r="AO6" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AP6" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="49">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="AR6" s="70">
+      <c r="AO6" s="73">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AS6" s="46"/>
-      <c r="AT6" s="46"/>
+      <c r="AP6" s="73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="43">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="AR6" s="64">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AS6" s="40">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="AT6" s="40">
+        <f t="shared" si="1"/>
+        <v>0.76888888888888884</v>
+      </c>
+      <c r="AU6" s="82">
+        <f t="shared" si="7"/>
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="AV6" s="82">
+        <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
+        <v>1.0877777777777777</v>
+      </c>
     </row>
-    <row r="7" spans="1:47" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" ht="60.75" thickBot="1">
       <c r="A7" s="38" t="s">
         <v>0</v>
       </c>
@@ -8828,56 +8917,56 @@
       <c r="D7" s="12">
         <v>7.2</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="53" t="s">
+      <c r="E7" s="46"/>
+      <c r="F7" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="47" t="s">
         <v>73</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="K7" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="L7" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="M7" s="73"/>
-      <c r="N7" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="O7" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="P7" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q7" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="R7" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="S7" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="T7" s="60"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="W7" s="67"/>
-      <c r="X7" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y7" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z7" s="60" t="s">
+      <c r="J7" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="67"/>
+      <c r="N7" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="R7" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="S7" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="T7" s="54"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y7" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z7" s="54" t="s">
         <v>73</v>
       </c>
       <c r="AA7" s="6" t="s">
@@ -8896,8 +8985,8 @@
       <c r="AF7" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AG7" s="5" t="s">
-        <v>98</v>
+      <c r="AG7" s="5">
+        <v>110</v>
       </c>
       <c r="AH7" s="5">
         <v>15.7</v>
@@ -8908,40 +8997,54 @@
       <c r="AJ7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AK7" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL7" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="AM7" s="79">
+      <c r="AK7" s="5">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AL7" s="12">
+        <v>11.8</v>
+      </c>
+      <c r="AM7" s="73">
+        <f t="shared" si="2"/>
+        <v>0.53294903018305673</v>
+      </c>
+      <c r="AN7" s="73">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AO7" s="73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AP7" s="73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="43">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="AR7" s="64">
+        <f t="shared" si="6"/>
+        <v>0.84615384615384626</v>
+      </c>
+      <c r="AS7" s="40">
         <f t="shared" si="0"/>
-        <v>0.53294903018305673</v>
-      </c>
-      <c r="AN7" s="79">
+        <v>1.02</v>
+      </c>
+      <c r="AT7" s="40">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AO7" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AP7" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AQ7" s="49">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="AR7" s="70">
-        <f t="shared" si="4"/>
-        <v>0.84615384615384626</v>
-      </c>
-      <c r="AS7" s="46"/>
-      <c r="AT7" s="46"/>
+        <v>0.41222222222222221</v>
+      </c>
+      <c r="AU7" s="82">
+        <f t="shared" si="7"/>
+        <v>0.61102564102564105</v>
+      </c>
+      <c r="AV7" s="82">
+        <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
+        <v>0.44944444444444442</v>
+      </c>
     </row>
-    <row r="8" spans="1:47" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" ht="75.75" thickBot="1">
       <c r="A8" s="38" t="s">
         <v>8</v>
       </c>
@@ -8954,58 +9057,58 @@
       <c r="D8" s="12">
         <v>9</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="53" t="s">
+      <c r="E8" s="46"/>
+      <c r="F8" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="47" t="s">
         <v>73</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>73</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="L8" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="M8" s="73"/>
-      <c r="N8" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="O8" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="P8" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q8" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="R8" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="S8" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="T8" s="60"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="W8" s="67"/>
-      <c r="X8" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y8" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z8" s="60" t="s">
+      <c r="J8" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="67"/>
+      <c r="N8" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="R8" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="S8" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="T8" s="54"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="W8" s="61"/>
+      <c r="X8" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y8" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z8" s="54" t="s">
         <v>73</v>
       </c>
       <c r="AA8" s="6"/>
@@ -9022,8 +9125,8 @@
       <c r="AF8" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AG8" s="5" t="s">
-        <v>106</v>
+      <c r="AG8" s="5">
+        <v>139</v>
       </c>
       <c r="AH8" s="5">
         <v>17.5</v>
@@ -9034,40 +9137,54 @@
       <c r="AJ8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AK8" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL8" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="AM8" s="79">
+      <c r="AK8" s="5">
+        <v>10</v>
+      </c>
+      <c r="AL8" s="12">
+        <v>12.5</v>
+      </c>
+      <c r="AM8" s="73">
+        <f t="shared" si="2"/>
+        <v>0.40363660435055676</v>
+      </c>
+      <c r="AN8" s="73">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AO8" s="73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AP8" s="73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="43">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="AR8" s="64">
+        <f t="shared" si="6"/>
+        <v>0.84615384615384626</v>
+      </c>
+      <c r="AS8" s="40">
         <f t="shared" si="0"/>
-        <v>0.40363660435055676</v>
-      </c>
-      <c r="AN8" s="79">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="40">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AO8" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AP8" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AQ8" s="49">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="AR8" s="70">
-        <f t="shared" si="4"/>
-        <v>0.84615384615384626</v>
-      </c>
-      <c r="AS8" s="46"/>
-      <c r="AT8" s="46"/>
+        <v>0.17222222222222222</v>
+      </c>
+      <c r="AU8" s="82">
+        <f t="shared" si="7"/>
+        <v>0.60769230769230775</v>
+      </c>
+      <c r="AV8" s="82">
+        <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
+        <v>0.54194444444444445</v>
+      </c>
     </row>
-    <row r="9" spans="1:47" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" ht="86.25" thickBot="1">
       <c r="A9" s="38" t="s">
         <v>9</v>
       </c>
@@ -9080,62 +9197,62 @@
       <c r="D9" s="12">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="53" t="s">
+      <c r="E9" s="46"/>
+      <c r="F9" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="47" t="s">
         <v>73</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>73</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="K9" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="L9" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="M9" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="N9" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="O9" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="P9" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="R9" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="S9" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="T9" s="60"/>
-      <c r="U9" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="V9" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="W9" s="67"/>
-      <c r="X9" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y9" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z9" s="60" t="s">
+      <c r="J9" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="O9" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="R9" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="S9" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="T9" s="54"/>
+      <c r="U9" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="V9" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y9" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z9" s="54" t="s">
         <v>73</v>
       </c>
       <c r="AA9" s="6" t="s">
@@ -9156,8 +9273,8 @@
       <c r="AF9" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AG9" s="5" t="s">
-        <v>99</v>
+      <c r="AG9" s="5">
+        <v>169</v>
       </c>
       <c r="AH9" s="5">
         <v>20.399999999999999</v>
@@ -9168,40 +9285,54 @@
       <c r="AJ9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AK9" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL9" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="AM9" s="79">
-        <f t="shared" si="0"/>
+      <c r="AK9" s="5">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AL9" s="12">
+        <v>10.5</v>
+      </c>
+      <c r="AM9" s="73">
+        <f t="shared" si="2"/>
         <v>0.25005000750100009</v>
       </c>
-      <c r="AN9" s="79">
-        <f t="shared" si="1"/>
+      <c r="AN9" s="73">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AO9" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AP9" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AQ9" s="49">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="AR9" s="70">
+      <c r="AO9" s="73">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AS9" s="46"/>
-      <c r="AT9" s="46"/>
+      <c r="AP9" s="73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="43">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="AR9" s="64">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AS9" s="40">
+        <f t="shared" si="0"/>
+        <v>0.88000000000000012</v>
+      </c>
+      <c r="AT9" s="40">
+        <f t="shared" si="1"/>
+        <v>0.43833333333333335</v>
+      </c>
+      <c r="AU9" s="82">
+        <f t="shared" si="7"/>
+        <v>0.94666666666666666</v>
+      </c>
+      <c r="AV9" s="82">
+        <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
+        <v>0.64916666666666667</v>
+      </c>
     </row>
-    <row r="10" spans="1:47" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:48" ht="60.75" thickBot="1">
       <c r="A10" s="38" t="s">
         <v>10</v>
       </c>
@@ -9214,54 +9345,54 @@
       <c r="D10" s="12">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="53" t="s">
+      <c r="E10" s="46"/>
+      <c r="F10" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="47" t="s">
         <v>73</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>73</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="L10" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="M10" s="73"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="P10" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q10" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="R10" s="67"/>
-      <c r="S10" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="T10" s="60"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="W10" s="67"/>
-      <c r="X10" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y10" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z10" s="60" t="s">
+      <c r="J10" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="67"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="R10" s="61"/>
+      <c r="S10" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="T10" s="54"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="W10" s="61"/>
+      <c r="X10" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y10" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z10" s="54" t="s">
         <v>73</v>
       </c>
       <c r="AA10" s="6"/>
@@ -9278,8 +9409,8 @@
       <c r="AF10" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AG10" s="5" t="s">
-        <v>107</v>
+      <c r="AG10" s="5">
+        <v>155</v>
       </c>
       <c r="AH10" s="5">
         <v>20</v>
@@ -9290,40 +9421,54 @@
       <c r="AJ10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AK10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM10" s="79">
+      <c r="AK10" s="5">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AL10" s="12">
+        <v>11.3</v>
+      </c>
+      <c r="AM10" s="73">
+        <f t="shared" si="2"/>
+        <v>0.51034988547034077</v>
+      </c>
+      <c r="AN10" s="73">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AO10" s="73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AP10" s="73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="43">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="AR10" s="64">
+        <f t="shared" si="6"/>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="AS10" s="40">
         <f t="shared" si="0"/>
-        <v>0.51034988547034077</v>
-      </c>
-      <c r="AN10" s="79">
+        <v>0.93000000000000016</v>
+      </c>
+      <c r="AT10" s="40">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AO10" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AP10" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AQ10" s="49">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="AR10" s="70">
-        <f t="shared" si="4"/>
-        <v>0.69230769230769229</v>
-      </c>
-      <c r="AS10" s="46"/>
-      <c r="AT10" s="46"/>
+        <v>0.18611111111111112</v>
+      </c>
+      <c r="AU10" s="82">
+        <f t="shared" si="7"/>
+        <v>0.57038461538461538</v>
+      </c>
+      <c r="AV10" s="82">
+        <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
+        <v>0.60972222222222228</v>
+      </c>
     </row>
-    <row r="11" spans="1:47" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" ht="86.25" thickBot="1">
       <c r="A11" s="38" t="s">
         <v>11</v>
       </c>
@@ -9336,54 +9481,54 @@
       <c r="D11" s="12">
         <v>8.4</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="53" t="s">
+      <c r="E11" s="46"/>
+      <c r="F11" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="47" t="s">
         <v>73</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="M11" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="N11" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="O11" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="S11" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="T11" s="60"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="W11" s="67"/>
-      <c r="X11" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y11" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z11" s="60" t="s">
+      <c r="J11" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="O11" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="S11" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="T11" s="54"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="W11" s="61"/>
+      <c r="X11" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y11" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z11" s="54" t="s">
         <v>73</v>
       </c>
       <c r="AA11" s="6"/>
@@ -9400,8 +9545,8 @@
       <c r="AF11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AG11" s="5" t="s">
-        <v>108</v>
+      <c r="AG11" s="5">
+        <v>130</v>
       </c>
       <c r="AH11" s="5">
         <v>18.600000000000001</v>
@@ -9412,40 +9557,54 @@
       <c r="AJ11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AK11" s="5" t="s">
-        <v>131</v>
+      <c r="AK11" s="5">
+        <v>9.6</v>
       </c>
       <c r="AL11" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="AM11" s="79">
+      <c r="AM11" s="73">
+        <f t="shared" si="2"/>
+        <v>0.51034988547034077</v>
+      </c>
+      <c r="AN11" s="73">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AO11" s="73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AP11" s="73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="43">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="AR11" s="64">
+        <f t="shared" si="6"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="AS11" s="40">
         <f t="shared" si="0"/>
-        <v>0.51034988547034077</v>
-      </c>
-      <c r="AN11" s="79">
+        <v>0.96</v>
+      </c>
+      <c r="AT11" s="40">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AO11" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AP11" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AQ11" s="49">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="AR11" s="70">
-        <f t="shared" si="4"/>
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="AS11" s="46"/>
-      <c r="AT11" s="46"/>
+        <v>0.17833333333333334</v>
+      </c>
+      <c r="AU11" s="82">
+        <f t="shared" si="7"/>
+        <v>0.42153846153846158</v>
+      </c>
+      <c r="AV11" s="82">
+        <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
+        <v>0.53166666666666673</v>
+      </c>
     </row>
-    <row r="12" spans="1:47" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" ht="90.75" thickBot="1">
       <c r="A12" s="38" t="s">
         <v>1</v>
       </c>
@@ -9458,58 +9617,58 @@
       <c r="D12" s="12">
         <v>9.4</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="53" t="s">
+      <c r="E12" s="46"/>
+      <c r="F12" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="47" t="s">
         <v>73</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="L12" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="M12" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="N12" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="O12" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="P12" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q12" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="R12" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="S12" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="T12" s="60"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="W12" s="67"/>
-      <c r="X12" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y12" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z12" s="60"/>
+      <c r="J12" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="O12" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="R12" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="S12" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="T12" s="54"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="W12" s="61"/>
+      <c r="X12" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y12" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z12" s="54"/>
       <c r="AA12" s="6" t="s">
         <v>73</v>
       </c>
@@ -9528,8 +9687,8 @@
       <c r="AF12" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AG12" s="5" t="s">
-        <v>99</v>
+      <c r="AG12" s="5">
+        <v>169</v>
       </c>
       <c r="AH12" s="5">
         <v>20</v>
@@ -9540,40 +9699,54 @@
       <c r="AJ12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AK12" s="5" t="s">
-        <v>117</v>
+      <c r="AK12" s="5">
+        <v>8.9</v>
       </c>
       <c r="AL12" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AM12" s="79">
+      <c r="AM12" s="73">
+        <f t="shared" si="2"/>
+        <v>0.23158419335983274</v>
+      </c>
+      <c r="AN12" s="73">
+        <f t="shared" si="3"/>
+        <v>0.92633677343933096</v>
+      </c>
+      <c r="AO12" s="73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AP12" s="73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="43">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="AR12" s="64">
+        <f t="shared" si="6"/>
+        <v>0.84615384615384626</v>
+      </c>
+      <c r="AS12" s="40">
         <f t="shared" si="0"/>
-        <v>0.23158419335983274</v>
-      </c>
-      <c r="AN12" s="79">
+        <v>0.89000000000000012</v>
+      </c>
+      <c r="AT12" s="40">
         <f t="shared" si="1"/>
-        <v>0.92633677343933096</v>
-      </c>
-      <c r="AO12" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AP12" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AQ12" s="49">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="AR12" s="70">
-        <f t="shared" si="4"/>
-        <v>0.84615384615384626</v>
-      </c>
-      <c r="AS12" s="46"/>
-      <c r="AT12" s="46"/>
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="AU12" s="82">
+        <f t="shared" si="7"/>
+        <v>0.75602564102564107</v>
+      </c>
+      <c r="AV12" s="82">
+        <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
+        <v>0.6447222222222222</v>
+      </c>
     </row>
-    <row r="13" spans="1:47" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48" ht="90.75" thickBot="1">
       <c r="A13" s="38" t="s">
         <v>17</v>
       </c>
@@ -9586,58 +9759,58 @@
       <c r="D13" s="12">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="53" t="s">
+      <c r="E13" s="46"/>
+      <c r="F13" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="47" t="s">
         <v>73</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J13" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="M13" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="N13" s="67"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q13" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="R13" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="S13" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="T13" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="U13" s="64"/>
-      <c r="V13" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y13" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z13" s="60" t="s">
+      <c r="J13" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="N13" s="61"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="R13" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="S13" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="T13" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="U13" s="58"/>
+      <c r="V13" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y13" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z13" s="54" t="s">
         <v>73</v>
       </c>
       <c r="AA13" s="6" t="s">
@@ -9656,11 +9829,11 @@
       <c r="AF13" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AG13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH13" s="5" t="s">
-        <v>21</v>
+      <c r="AG13" s="5">
+        <v>200</v>
+      </c>
+      <c r="AH13" s="5">
+        <v>20</v>
       </c>
       <c r="AI13" s="5">
         <v>217</v>
@@ -9668,40 +9841,54 @@
       <c r="AJ13" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="AK13" s="5" t="s">
-        <v>126</v>
+      <c r="AK13" s="5">
+        <v>7.9</v>
       </c>
       <c r="AL13" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="AM13" s="79">
+      <c r="AM13" s="73">
+        <f t="shared" si="2"/>
+        <v>7.5060987051979722E-2</v>
+      </c>
+      <c r="AN13" s="73">
+        <f t="shared" si="3"/>
+        <v>0.30024394820791889</v>
+      </c>
+      <c r="AO13" s="73">
+        <f t="shared" si="4"/>
+        <v>0.6755488834678175</v>
+      </c>
+      <c r="AP13" s="73">
+        <f t="shared" si="4"/>
+        <v>0.6755488834678175</v>
+      </c>
+      <c r="AQ13" s="43">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="AR13" s="64">
+        <f t="shared" si="6"/>
+        <v>0.84615384615384626</v>
+      </c>
+      <c r="AS13" s="40">
         <f t="shared" si="0"/>
-        <v>7.5060987051979722E-2</v>
-      </c>
-      <c r="AN13" s="79">
+        <v>0.79</v>
+      </c>
+      <c r="AT13" s="40">
         <f t="shared" si="1"/>
-        <v>0.30024394820791889</v>
-      </c>
-      <c r="AO13" s="79">
-        <f t="shared" si="2"/>
-        <v>0.6755488834678175</v>
-      </c>
-      <c r="AP13" s="79">
-        <f t="shared" si="2"/>
-        <v>0.6755488834678175</v>
-      </c>
-      <c r="AQ13" s="49">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="AR13" s="70">
-        <f t="shared" si="4"/>
-        <v>0.84615384615384626</v>
-      </c>
-      <c r="AS13" s="46"/>
-      <c r="AT13" s="46"/>
+        <v>0.68611111111111112</v>
+      </c>
+      <c r="AU13" s="82">
+        <f t="shared" si="7"/>
+        <v>0.57269230769230772</v>
+      </c>
+      <c r="AV13" s="82">
+        <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
+        <v>0.72222222222222221</v>
+      </c>
     </row>
-    <row r="14" spans="1:47" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" ht="60.75" thickBot="1">
       <c r="A14" s="38" t="s">
         <v>13</v>
       </c>
@@ -9714,58 +9901,58 @@
       <c r="D14" s="12">
         <v>8.9</v>
       </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="53" t="s">
+      <c r="E14" s="46"/>
+      <c r="F14" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="47" t="s">
         <v>73</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>73</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="L14" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="M14" s="73"/>
-      <c r="N14" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="O14" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="P14" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q14" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="R14" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="S14" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="T14" s="60"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="W14" s="67"/>
-      <c r="X14" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y14" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z14" s="60" t="s">
+      <c r="J14" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" s="67"/>
+      <c r="N14" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="O14" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="R14" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="S14" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="T14" s="54"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y14" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z14" s="54" t="s">
         <v>73</v>
       </c>
       <c r="AA14" s="6" t="s">
@@ -9786,8 +9973,8 @@
       <c r="AF14" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AG14" s="5" t="s">
-        <v>109</v>
+      <c r="AG14" s="5">
+        <v>128</v>
       </c>
       <c r="AH14" s="5">
         <v>17.100000000000001</v>
@@ -9798,40 +9985,54 @@
       <c r="AJ14" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AK14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM14" s="79">
+      <c r="AK14" s="5">
+        <v>7</v>
+      </c>
+      <c r="AL14" s="12">
+        <v>9</v>
+      </c>
+      <c r="AM14" s="73">
+        <f t="shared" si="2"/>
+        <v>0.69467598380915907</v>
+      </c>
+      <c r="AN14" s="73">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AO14" s="73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AP14" s="73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="43">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="AR14" s="64">
+        <f t="shared" si="6"/>
+        <v>0.84615384615384626</v>
+      </c>
+      <c r="AS14" s="40">
         <f t="shared" si="0"/>
-        <v>0.69467598380915907</v>
-      </c>
-      <c r="AN14" s="79">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="AT14" s="40">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AO14" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AP14" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AQ14" s="49">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="AR14" s="70">
-        <f t="shared" si="4"/>
-        <v>0.84615384615384626</v>
-      </c>
-      <c r="AS14" s="46"/>
-      <c r="AT14" s="46"/>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="AU14" s="82">
+        <f t="shared" si="7"/>
+        <v>0.89102564102564097</v>
+      </c>
+      <c r="AV14" s="82">
+        <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
+        <v>0.51</v>
+      </c>
     </row>
-    <row r="15" spans="1:47" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" ht="114.75" thickBot="1">
       <c r="A15" s="38" t="s">
         <v>14</v>
       </c>
@@ -9844,62 +10045,62 @@
       <c r="D15" s="12">
         <v>8.5</v>
       </c>
-      <c r="E15" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="53" t="s">
+      <c r="E15" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="47" t="s">
         <v>73</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J15" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="K15" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="L15" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="M15" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="N15" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="O15" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="P15" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q15" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="R15" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="S15" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="T15" s="60"/>
-      <c r="U15" s="64"/>
-      <c r="V15" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y15" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z15" s="60" t="s">
+      <c r="J15" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="L15" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="M15" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="N15" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="O15" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q15" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="R15" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="S15" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="T15" s="54"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y15" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z15" s="54" t="s">
         <v>73</v>
       </c>
       <c r="AA15" s="6"/>
@@ -9918,8 +10119,8 @@
       <c r="AF15" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AG15" s="5" t="s">
-        <v>110</v>
+      <c r="AG15" s="5">
+        <v>156</v>
       </c>
       <c r="AH15" s="5">
         <v>25.5</v>
@@ -9930,40 +10131,54 @@
       <c r="AJ15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AK15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL15" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM15" s="79">
+      <c r="AK15" s="5">
+        <v>11.4</v>
+      </c>
+      <c r="AL15" s="12">
+        <v>15.3</v>
+      </c>
+      <c r="AM15" s="73">
+        <f t="shared" si="2"/>
+        <v>0.15046454423386765</v>
+      </c>
+      <c r="AN15" s="73">
+        <f t="shared" si="3"/>
+        <v>0.60185817693547061</v>
+      </c>
+      <c r="AO15" s="73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AP15" s="73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="43">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="AR15" s="64">
+        <f t="shared" si="6"/>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="AS15" s="40">
         <f t="shared" si="0"/>
-        <v>0.15046454423386765</v>
-      </c>
-      <c r="AN15" s="79">
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="AT15" s="40">
         <f t="shared" si="1"/>
-        <v>0.60185817693547061</v>
-      </c>
-      <c r="AO15" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AP15" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AQ15" s="49">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="AR15" s="70">
-        <f t="shared" si="4"/>
-        <v>0.92307692307692313</v>
-      </c>
-      <c r="AS15" s="46"/>
-      <c r="AT15" s="46"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="AU15" s="82">
+        <f t="shared" si="7"/>
+        <v>0.67717948717948728</v>
+      </c>
+      <c r="AV15" s="82">
+        <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
+        <v>0.67333333333333334</v>
+      </c>
     </row>
-    <row r="16" spans="1:47" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:48" ht="75.75" thickBot="1">
       <c r="A16" s="38" t="s">
         <v>15</v>
       </c>
@@ -9976,58 +10191,58 @@
       <c r="D16" s="12">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="53" t="s">
+      <c r="E16" s="46"/>
+      <c r="F16" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="47" t="s">
         <v>73</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="M16" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="N16" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="O16" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="P16" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q16" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="R16" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="S16" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="T16" s="60"/>
-      <c r="U16" s="64"/>
-      <c r="V16" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="W16" s="67"/>
-      <c r="X16" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y16" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z16" s="60"/>
+      <c r="J16" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="M16" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="N16" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="O16" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q16" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="R16" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="S16" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="T16" s="54"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y16" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z16" s="54"/>
       <c r="AA16" s="6" t="s">
         <v>73</v>
       </c>
@@ -10044,8 +10259,8 @@
       <c r="AF16" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AG16" s="5" t="s">
-        <v>111</v>
+      <c r="AG16" s="5">
+        <v>180</v>
       </c>
       <c r="AH16" s="5">
         <v>35</v>
@@ -10056,40 +10271,54 @@
       <c r="AJ16" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AK16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM16" s="79">
+      <c r="AK16" s="5">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AL16" s="12">
+        <v>12</v>
+      </c>
+      <c r="AM16" s="73">
+        <f t="shared" si="2"/>
+        <v>9.2961961107087862E-2</v>
+      </c>
+      <c r="AN16" s="73">
+        <f t="shared" si="3"/>
+        <v>0.37184784442835145</v>
+      </c>
+      <c r="AO16" s="73">
+        <f t="shared" si="4"/>
+        <v>0.83665764996379066</v>
+      </c>
+      <c r="AP16" s="73">
+        <f t="shared" si="4"/>
+        <v>0.83665764996379066</v>
+      </c>
+      <c r="AQ16" s="43">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="AR16" s="64">
+        <f t="shared" si="6"/>
+        <v>0.84615384615384626</v>
+      </c>
+      <c r="AS16" s="40">
         <f t="shared" si="0"/>
-        <v>9.2961961107087862E-2</v>
-      </c>
-      <c r="AN16" s="79">
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="AT16" s="40">
         <f t="shared" si="1"/>
-        <v>0.37184784442835145</v>
-      </c>
-      <c r="AO16" s="79">
-        <f t="shared" si="2"/>
-        <v>0.83665764996379066</v>
-      </c>
-      <c r="AP16" s="79">
-        <f t="shared" si="2"/>
-        <v>0.83665764996379066</v>
-      </c>
-      <c r="AQ16" s="49">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="AR16" s="70">
-        <f t="shared" si="4"/>
-        <v>0.84615384615384626</v>
-      </c>
-      <c r="AS16" s="46"/>
-      <c r="AT16" s="46"/>
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="AU16" s="82">
+        <f t="shared" si="7"/>
+        <v>0.57935897435897443</v>
+      </c>
+      <c r="AV16" s="82">
+        <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
+        <v>0.83888888888888891</v>
+      </c>
     </row>
-    <row r="17" spans="1:46" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:48" ht="75.75" thickBot="1">
       <c r="A17" s="38" t="s">
         <v>16</v>
       </c>
@@ -10102,56 +10331,56 @@
       <c r="D17" s="12">
         <v>9.1</v>
       </c>
-      <c r="E17" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="53" t="s">
+      <c r="E17" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="47" t="s">
         <v>73</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>73</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="K17" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="L17" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="M17" s="73"/>
-      <c r="N17" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="O17" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="S17" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="T17" s="60"/>
-      <c r="U17" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="V17" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="W17" s="67"/>
-      <c r="X17" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="60" t="s">
+      <c r="J17" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="M17" s="67"/>
+      <c r="N17" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="O17" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="S17" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="T17" s="54"/>
+      <c r="U17" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="V17" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="W17" s="61"/>
+      <c r="X17" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="54" t="s">
         <v>73</v>
       </c>
       <c r="AA17" s="6" t="s">
@@ -10170,8 +10399,8 @@
       <c r="AF17" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AG17" s="5" t="s">
-        <v>100</v>
+      <c r="AG17" s="5">
+        <v>115</v>
       </c>
       <c r="AH17" s="5">
         <v>15.5</v>
@@ -10182,40 +10411,54 @@
       <c r="AJ17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AK17" s="5" t="s">
-        <v>119</v>
+      <c r="AK17" s="5">
+        <v>10.199999999999999</v>
       </c>
       <c r="AL17" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="AM17" s="79">
+      <c r="AM17" s="73">
+        <f t="shared" si="2"/>
+        <v>0.52071355836670996</v>
+      </c>
+      <c r="AN17" s="73">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AO17" s="73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AP17" s="73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="43">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="AR17" s="64">
+        <f t="shared" si="6"/>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="AS17" s="40">
         <f t="shared" si="0"/>
-        <v>0.52071355836670996</v>
-      </c>
-      <c r="AN17" s="79">
+        <v>1.02</v>
+      </c>
+      <c r="AT17" s="40">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AO17" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AP17" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AQ17" s="49">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="AR17" s="70">
-        <f t="shared" si="4"/>
-        <v>0.69230769230769229</v>
-      </c>
-      <c r="AS17" s="46"/>
-      <c r="AT17" s="46"/>
+        <v>0.41111111111111109</v>
+      </c>
+      <c r="AU17" s="82">
+        <f t="shared" si="7"/>
+        <v>0.78538461538461546</v>
+      </c>
+      <c r="AV17" s="82">
+        <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
+        <v>0.4597222222222222</v>
+      </c>
     </row>
-    <row r="18" spans="1:46" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:48" ht="75.75" thickBot="1">
       <c r="A18" s="38" t="s">
         <v>2</v>
       </c>
@@ -10228,58 +10471,58 @@
       <c r="D18" s="12">
         <v>7.9</v>
       </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="53" t="s">
+      <c r="E18" s="46"/>
+      <c r="F18" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="47" t="s">
         <v>73</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>73</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="K18" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="L18" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="M18" s="73"/>
-      <c r="N18" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="O18" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="P18" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q18" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="R18" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="S18" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="T18" s="60"/>
-      <c r="U18" s="64"/>
-      <c r="V18" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="W18" s="67"/>
-      <c r="X18" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y18" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z18" s="60"/>
+      <c r="J18" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" s="67"/>
+      <c r="N18" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="O18" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="R18" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="S18" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="T18" s="54"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="W18" s="61"/>
+      <c r="X18" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y18" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z18" s="54"/>
       <c r="AA18" s="6"/>
       <c r="AB18" s="19"/>
       <c r="AC18" s="8" t="s">
@@ -10294,8 +10537,8 @@
       <c r="AF18" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AG18" s="5" t="s">
-        <v>98</v>
+      <c r="AG18" s="5">
+        <v>110</v>
       </c>
       <c r="AH18" s="5">
         <v>15.1</v>
@@ -10306,40 +10549,54 @@
       <c r="AJ18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AK18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM18" s="79">
+      <c r="AK18" s="5">
+        <v>8</v>
+      </c>
+      <c r="AL18" s="12">
+        <v>11</v>
+      </c>
+      <c r="AM18" s="73">
+        <f t="shared" si="2"/>
+        <v>0.56549314247954852</v>
+      </c>
+      <c r="AN18" s="73">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AO18" s="73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AP18" s="73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AQ18" s="43">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="AR18" s="64">
+        <f t="shared" si="6"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="AS18" s="40">
         <f t="shared" si="0"/>
-        <v>0.56549314247954852</v>
-      </c>
-      <c r="AN18" s="79">
+        <v>0.8</v>
+      </c>
+      <c r="AT18" s="40">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AO18" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AP18" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AQ18" s="49">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="AR18" s="70">
-        <f t="shared" si="4"/>
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="AS18" s="46"/>
-      <c r="AT18" s="46"/>
+        <v>0.15888888888888889</v>
+      </c>
+      <c r="AU18" s="82">
+        <f t="shared" si="7"/>
+        <v>0.56153846153846165</v>
+      </c>
+      <c r="AV18" s="82">
+        <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
+        <v>0.44277777777777783</v>
+      </c>
     </row>
-    <row r="19" spans="1:46" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:48" ht="60.75" thickBot="1">
       <c r="A19" s="38" t="s">
         <v>18</v>
       </c>
@@ -10352,52 +10609,52 @@
       <c r="D19" s="12">
         <v>9.1</v>
       </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="53" t="s">
+      <c r="E19" s="46"/>
+      <c r="F19" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="47" t="s">
         <v>73</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>73</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="K19" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="L19" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="M19" s="73"/>
-      <c r="N19" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="O19" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="P19" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q19" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="R19" s="67"/>
-      <c r="S19" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="T19" s="60"/>
-      <c r="U19" s="64"/>
-      <c r="V19" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="W19" s="67"/>
-      <c r="X19" s="67"/>
-      <c r="Y19" s="64"/>
-      <c r="Z19" s="60" t="s">
+      <c r="J19" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="L19" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="M19" s="67"/>
+      <c r="N19" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="O19" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q19" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="R19" s="61"/>
+      <c r="S19" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="T19" s="54"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="W19" s="61"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="54" t="s">
         <v>73</v>
       </c>
       <c r="AA19" s="6"/>
@@ -10414,8 +10671,8 @@
       <c r="AF19" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AG19" s="5" t="s">
-        <v>103</v>
+      <c r="AG19" s="5">
+        <v>140</v>
       </c>
       <c r="AH19" s="5">
         <v>18.7</v>
@@ -10426,40 +10683,54 @@
       <c r="AJ19" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="AK19" s="5" t="s">
-        <v>122</v>
+      <c r="AK19" s="5">
+        <v>7.6</v>
       </c>
       <c r="AL19" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="AM19" s="79">
+      <c r="AM19" s="73">
+        <f t="shared" si="2"/>
+        <v>0.40067826175063925</v>
+      </c>
+      <c r="AN19" s="73">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AO19" s="73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AP19" s="73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="43">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="AR19" s="64">
+        <f t="shared" si="6"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="AS19" s="40">
         <f t="shared" si="0"/>
-        <v>0.40067826175063925</v>
-      </c>
-      <c r="AN19" s="79">
+        <v>0.76</v>
+      </c>
+      <c r="AT19" s="40">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AO19" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AP19" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AQ19" s="49">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="AR19" s="70">
-        <f t="shared" si="4"/>
-        <v>0.61538461538461542</v>
-      </c>
-      <c r="AS19" s="46"/>
-      <c r="AT19" s="46"/>
+        <v>0.17888888888888888</v>
+      </c>
+      <c r="AU19" s="82">
+        <f t="shared" si="7"/>
+        <v>0.52923076923076928</v>
+      </c>
+      <c r="AV19" s="82">
+        <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
+        <v>0.55777777777777771</v>
+      </c>
     </row>
-    <row r="20" spans="1:46" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:48" ht="75.75" thickBot="1">
       <c r="A20" s="38" t="s">
         <v>19</v>
       </c>
@@ -10472,56 +10743,56 @@
       <c r="D20" s="12">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="53" t="s">
+      <c r="E20" s="46"/>
+      <c r="F20" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="47" t="s">
         <v>73</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>73</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="L20" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="M20" s="73"/>
-      <c r="N20" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="O20" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="P20" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q20" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="R20" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="S20" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="T20" s="60"/>
-      <c r="U20" s="64"/>
-      <c r="V20" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="W20" s="67"/>
-      <c r="X20" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y20" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z20" s="60"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="M20" s="67"/>
+      <c r="N20" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="O20" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="P20" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q20" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="R20" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="S20" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="T20" s="54"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="W20" s="61"/>
+      <c r="X20" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y20" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z20" s="54"/>
       <c r="AA20" s="6" t="s">
         <v>73</v>
       </c>
@@ -10538,8 +10809,8 @@
       <c r="AF20" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AG20" s="5" t="s">
-        <v>112</v>
+      <c r="AG20" s="5">
+        <v>158</v>
       </c>
       <c r="AH20" s="5">
         <v>25</v>
@@ -10550,40 +10821,54 @@
       <c r="AJ20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AK20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM20" s="79">
+      <c r="AK20" s="5">
+        <v>6.3</v>
+      </c>
+      <c r="AL20" s="12">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AM20" s="73">
+        <f t="shared" si="2"/>
+        <v>0.14781526816424229</v>
+      </c>
+      <c r="AN20" s="73">
+        <f t="shared" si="3"/>
+        <v>0.59126107265696914</v>
+      </c>
+      <c r="AO20" s="73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AP20" s="73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AQ20" s="43">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="AR20" s="64">
+        <f t="shared" si="6"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="AS20" s="40">
         <f t="shared" si="0"/>
-        <v>0.14781526816424229</v>
-      </c>
-      <c r="AN20" s="79">
+        <v>0.63</v>
+      </c>
+      <c r="AT20" s="40">
         <f t="shared" si="1"/>
-        <v>0.59126107265696914</v>
-      </c>
-      <c r="AO20" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AP20" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AQ20" s="49">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="AR20" s="70">
-        <f t="shared" si="4"/>
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="AS20" s="46"/>
-      <c r="AT20" s="46"/>
+        <v>0.46388888888888891</v>
+      </c>
+      <c r="AU20" s="82">
+        <f t="shared" si="7"/>
+        <v>0.66653846153846152</v>
+      </c>
+      <c r="AV20" s="82">
+        <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
+        <v>0.67277777777777781</v>
+      </c>
     </row>
-    <row r="21" spans="1:46" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:48" ht="60.75" thickBot="1">
       <c r="A21" s="39" t="s">
         <v>20</v>
       </c>
@@ -10596,38 +10881,38 @@
       <c r="D21" s="13">
         <v>7</v>
       </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="L21" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="M21" s="74"/>
-      <c r="N21" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="O21" s="65"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="65"/>
-      <c r="V21" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="61"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="L21" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="M21" s="68"/>
+      <c r="N21" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="O21" s="59"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="W21" s="62"/>
+      <c r="X21" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="55"/>
       <c r="AA21" s="17" t="s">
         <v>73</v>
       </c>
@@ -10644,8 +10929,8 @@
       <c r="AF21" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="AG21" s="10" t="s">
-        <v>113</v>
+      <c r="AG21" s="10">
+        <v>200</v>
       </c>
       <c r="AH21" s="10">
         <v>47.9</v>
@@ -10656,38 +10941,52 @@
       <c r="AJ21" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AK21" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL21" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM21" s="79">
+      <c r="AK21" s="10">
+        <v>8</v>
+      </c>
+      <c r="AL21" s="13">
+        <v>12</v>
+      </c>
+      <c r="AM21" s="73">
+        <f t="shared" si="2"/>
+        <v>0.19698767976605649</v>
+      </c>
+      <c r="AN21" s="73">
+        <f t="shared" si="3"/>
+        <v>0.78795071906422598</v>
+      </c>
+      <c r="AO21" s="73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AP21" s="73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AQ21" s="43">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="AR21" s="64">
+        <f t="shared" si="6"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="AS21" s="40">
         <f t="shared" si="0"/>
-        <v>0.19698767976605649</v>
-      </c>
-      <c r="AN21" s="79">
+        <v>0.8</v>
+      </c>
+      <c r="AT21" s="40">
         <f t="shared" si="1"/>
-        <v>0.78795071906422598</v>
-      </c>
-      <c r="AO21" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AP21" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AQ21" s="49">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="AR21" s="70">
-        <f t="shared" si="4"/>
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="AS21" s="46"/>
-      <c r="AT21" s="46"/>
+        <v>0.76611111111111108</v>
+      </c>
+      <c r="AU21" s="82">
+        <f t="shared" si="7"/>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="AV21" s="82">
+        <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
+        <v>1.0322222222222222</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10700,129 +10999,195 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:A25"/>
+  <dimension ref="A3:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="35" t="s">
         <v>147</v>
       </c>
+      <c r="B3" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="36" t="s">
         <v>56</v>
       </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="36" t="s">
         <v>57</v>
       </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="36" t="s">
         <v>58</v>
       </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="36" t="s">
         <v>59</v>
       </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="36" t="s">
         <v>60</v>
       </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="36" t="s">
         <v>52</v>
       </c>
+      <c r="B9">
+        <v>7.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="36" t="s">
         <v>61</v>
       </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="36" t="s">
         <v>62</v>
       </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="36" t="s">
         <v>55</v>
       </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="36" t="s">
         <v>63</v>
       </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="36" t="s">
         <v>64</v>
       </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="36" t="s">
         <v>53</v>
       </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="36" t="s">
         <v>69</v>
       </c>
+      <c r="B16">
+        <v>9.5</v>
+      </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="36" t="s">
         <v>65</v>
       </c>
+      <c r="B17">
+        <v>6.5</v>
+      </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="36" t="s">
         <v>66</v>
       </c>
+      <c r="B18">
+        <v>8.5</v>
+      </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="36" t="s">
         <v>67</v>
       </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="36" t="s">
         <v>68</v>
       </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="36" t="s">
         <v>54</v>
       </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="36" t="s">
         <v>70</v>
       </c>
+      <c r="B22">
+        <v>6.5</v>
+      </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="36" t="s">
         <v>71</v>
       </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="36" t="s">
         <v>72</v>
       </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="36" t="s">
         <v>148</v>
       </c>
@@ -10836,126 +11201,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>72</v>
       </c>

--- a/Comparison.xlsx
+++ b/Comparison.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11025" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Detalhes" sheetId="4" r:id="rId1"/>
@@ -1046,6 +1046,8 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1064,8 +1066,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5614,7 +5614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
@@ -5641,7 +5641,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="60">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="80" t="s">
         <v>145</v>
       </c>
       <c r="B1" s="22" t="s">
@@ -5712,7 +5712,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="38.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="81"/>
       <c r="B2" s="1" t="s">
         <v>140</v>
       </c>
@@ -5781,7 +5781,7 @@
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="79"/>
+      <c r="A3" s="81"/>
       <c r="B3" s="29"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -5806,7 +5806,7 @@
       <c r="W3" s="31"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A4" s="80"/>
+      <c r="A4" s="82"/>
       <c r="B4" s="32"/>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
@@ -5831,7 +5831,7 @@
       <c r="W4" s="34"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="80" t="s">
         <v>143</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -5902,7 +5902,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A6" s="80"/>
+      <c r="A6" s="82"/>
       <c r="B6" s="25" t="s">
         <v>142</v>
       </c>
@@ -5971,7 +5971,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="25.5">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="80" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -6008,7 +6008,7 @@
       <c r="W7" s="16"/>
     </row>
     <row r="8" spans="1:23" ht="25.5">
-      <c r="A8" s="79"/>
+      <c r="A8" s="81"/>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
@@ -6071,7 +6071,7 @@
       <c r="W8" s="17"/>
     </row>
     <row r="9" spans="1:23" ht="25.5">
-      <c r="A9" s="79"/>
+      <c r="A9" s="81"/>
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
@@ -6136,7 +6136,7 @@
       <c r="W9" s="17"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="79"/>
+      <c r="A10" s="81"/>
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
@@ -6187,7 +6187,7 @@
       <c r="W10" s="17"/>
     </row>
     <row r="11" spans="1:23" ht="25.5">
-      <c r="A11" s="79"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
@@ -6222,7 +6222,7 @@
       <c r="W11" s="17"/>
     </row>
     <row r="12" spans="1:23" ht="63.75">
-      <c r="A12" s="79"/>
+      <c r="A12" s="81"/>
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
@@ -6287,7 +6287,7 @@
       <c r="W12" s="17"/>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A13" s="80"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="18" t="s">
         <v>29</v>
       </c>
@@ -6356,7 +6356,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="38.25">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="77" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="14" t="s">
@@ -6427,7 +6427,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="38.25">
-      <c r="A15" s="76"/>
+      <c r="A15" s="78"/>
       <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
@@ -6470,7 +6470,7 @@
       <c r="W15" s="17"/>
     </row>
     <row r="16" spans="1:23" ht="25.5">
-      <c r="A16" s="76"/>
+      <c r="A16" s="78"/>
       <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
@@ -6533,7 +6533,7 @@
       </c>
     </row>
     <row r="17" spans="1:23" ht="64.5" thickBot="1">
-      <c r="A17" s="77"/>
+      <c r="A17" s="79"/>
       <c r="B17" s="18" t="s">
         <v>34</v>
       </c>
@@ -6596,7 +6596,7 @@
       <c r="W17" s="21"/>
     </row>
     <row r="18" spans="1:23" ht="30.75" customHeight="1">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="77" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -6659,7 +6659,7 @@
       <c r="W18" s="16"/>
     </row>
     <row r="19" spans="1:23" ht="25.5">
-      <c r="A19" s="76"/>
+      <c r="A19" s="78"/>
       <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
@@ -6720,7 +6720,7 @@
       <c r="W19" s="17"/>
     </row>
     <row r="20" spans="1:23" ht="25.5">
-      <c r="A20" s="76"/>
+      <c r="A20" s="78"/>
       <c r="B20" s="2" t="s">
         <v>38</v>
       </c>
@@ -6779,7 +6779,7 @@
       <c r="W20" s="17"/>
     </row>
     <row r="21" spans="1:23" ht="26.25" thickBot="1">
-      <c r="A21" s="77"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="18" t="s">
         <v>39</v>
       </c>
@@ -6844,7 +6844,7 @@
       <c r="W21" s="21"/>
     </row>
     <row r="22" spans="1:23" ht="25.5">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="77" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -6879,7 +6879,7 @@
       <c r="W22" s="16"/>
     </row>
     <row r="23" spans="1:23" ht="26.25" thickBot="1">
-      <c r="A23" s="77"/>
+      <c r="A23" s="79"/>
       <c r="B23" s="18" t="s">
         <v>42</v>
       </c>
@@ -6912,7 +6912,7 @@
       <c r="W23" s="21"/>
     </row>
     <row r="24" spans="1:23" ht="25.5">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="77" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="14" t="s">
@@ -6981,7 +6981,7 @@
       </c>
     </row>
     <row r="25" spans="1:23">
-      <c r="A25" s="76"/>
+      <c r="A25" s="78"/>
       <c r="B25" s="2" t="s">
         <v>45</v>
       </c>
@@ -7010,7 +7010,7 @@
       <c r="W25" s="17"/>
     </row>
     <row r="26" spans="1:23" ht="38.25">
-      <c r="A26" s="76"/>
+      <c r="A26" s="78"/>
       <c r="B26" s="2" t="s">
         <v>46</v>
       </c>
@@ -7075,7 +7075,7 @@
       </c>
     </row>
     <row r="27" spans="1:23" ht="39" thickBot="1">
-      <c r="A27" s="77"/>
+      <c r="A27" s="79"/>
       <c r="B27" s="18" t="s">
         <v>47</v>
       </c>
@@ -7134,7 +7134,7 @@
       <c r="W27" s="21"/>
     </row>
     <row r="28" spans="1:23" ht="38.25">
-      <c r="A28" s="75" t="s">
+      <c r="A28" s="77" t="s">
         <v>48</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -7193,7 +7193,7 @@
       <c r="W28" s="16"/>
     </row>
     <row r="29" spans="1:23" ht="25.5">
-      <c r="A29" s="76"/>
+      <c r="A29" s="78"/>
       <c r="B29" s="2" t="s">
         <v>50</v>
       </c>
@@ -7248,7 +7248,7 @@
       </c>
     </row>
     <row r="30" spans="1:23" ht="26.25" thickBot="1">
-      <c r="A30" s="77"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="18" t="s">
         <v>51</v>
       </c>
@@ -7289,7 +7289,7 @@
       <c r="W30" s="20"/>
     </row>
     <row r="31" spans="1:23" ht="25.5">
-      <c r="A31" s="75" t="s">
+      <c r="A31" s="77" t="s">
         <v>74</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -7360,7 +7360,7 @@
       </c>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="76"/>
+      <c r="A32" s="78"/>
       <c r="B32" s="3" t="s">
         <v>84</v>
       </c>
@@ -7429,7 +7429,7 @@
       </c>
     </row>
     <row r="33" spans="1:23" ht="71.25">
-      <c r="A33" s="76"/>
+      <c r="A33" s="78"/>
       <c r="B33" s="3" t="s">
         <v>87</v>
       </c>
@@ -7498,7 +7498,7 @@
       </c>
     </row>
     <row r="34" spans="1:23" ht="25.5">
-      <c r="A34" s="76"/>
+      <c r="A34" s="78"/>
       <c r="B34" s="3" t="s">
         <v>94</v>
       </c>
@@ -7567,7 +7567,7 @@
       </c>
     </row>
     <row r="35" spans="1:23" ht="25.5">
-      <c r="A35" s="76"/>
+      <c r="A35" s="78"/>
       <c r="B35" s="3" t="s">
         <v>97</v>
       </c>
@@ -7636,7 +7636,7 @@
       </c>
     </row>
     <row r="36" spans="1:23" ht="25.5">
-      <c r="A36" s="76"/>
+      <c r="A36" s="78"/>
       <c r="B36" s="3" t="s">
         <v>114</v>
       </c>
@@ -7705,7 +7705,7 @@
       </c>
     </row>
     <row r="37" spans="1:23" ht="38.25">
-      <c r="A37" s="76"/>
+      <c r="A37" s="78"/>
       <c r="B37" s="3" t="s">
         <v>115</v>
       </c>
@@ -7774,7 +7774,7 @@
       </c>
     </row>
     <row r="38" spans="1:23" ht="25.5">
-      <c r="A38" s="76"/>
+      <c r="A38" s="78"/>
       <c r="B38" s="3" t="s">
         <v>116</v>
       </c>
@@ -7843,7 +7843,7 @@
       </c>
     </row>
     <row r="39" spans="1:23" ht="38.25">
-      <c r="A39" s="76"/>
+      <c r="A39" s="78"/>
       <c r="B39" s="3" t="s">
         <v>125</v>
       </c>
@@ -7912,7 +7912,7 @@
       </c>
     </row>
     <row r="40" spans="1:23" ht="39" thickBot="1">
-      <c r="A40" s="77"/>
+      <c r="A40" s="79"/>
       <c r="B40" s="11" t="s">
         <v>132</v>
       </c>
@@ -8044,8 +8044,8 @@
     <col min="42" max="42" width="15.7109375" style="71" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="11" style="43" customWidth="1"/>
     <col min="44" max="44" width="9.140625" style="65"/>
-    <col min="47" max="47" width="9.140625" style="82"/>
-    <col min="48" max="48" width="10" style="82" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.140625" style="76"/>
+    <col min="48" max="48" width="10" style="76" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="46.5" customHeight="1" thickBot="1">
@@ -8187,10 +8187,10 @@
       <c r="AT1" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="AU1" s="82" t="s">
+      <c r="AU1" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="AV1" s="82" t="s">
+      <c r="AV1" s="76" t="s">
         <v>156</v>
       </c>
     </row>
@@ -8333,15 +8333,15 @@
         <f t="shared" ref="AS2:AS21" si="0">(IF($AK2="X",1,0) + $AK2 * 0.1) *(1/1)</f>
         <v>1.07</v>
       </c>
-      <c r="AT2" s="81">
+      <c r="AT2" s="75">
         <f t="shared" ref="AT2:AT21" si="1">(IF($I2="X",1,0)+IF($AA2="X",1,0)+IF($AF2="Diesel",1,0.3) + ($AH2/45))*(1/4)</f>
         <v>0.71666666666666656</v>
       </c>
-      <c r="AU2" s="82">
+      <c r="AU2" s="76">
         <f>(IF($H2="X",1,0)+IF($AA2="X",1,0)+ IF($AB2="X",1,0) + ($AQ2 / 100) + ($AR2 ) + ($AS2 ) ) / 6</f>
         <v>1.0116666666666667</v>
       </c>
-      <c r="AV2" s="82">
+      <c r="AV2" s="76">
         <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
         <v>0.65833333333333333</v>
       </c>
@@ -8475,11 +8475,11 @@
         <f t="shared" si="1"/>
         <v>0.42833333333333334</v>
       </c>
-      <c r="AU3" s="82">
+      <c r="AU3" s="76">
         <f t="shared" ref="AU3:AU21" si="7">(IF($H3="X",1,0)+IF($AA3="X",1,0)+ IF($AB3="X",1,0) + ($AQ3 / 100) + ($AR3 ) + ($AS3 ) ) / 6</f>
         <v>0.69320512820512814</v>
       </c>
-      <c r="AV3" s="82">
+      <c r="AV3" s="76">
         <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
         <v>0.55166666666666664</v>
       </c>
@@ -8615,11 +8615,11 @@
         <f t="shared" si="1"/>
         <v>0.42388888888888887</v>
       </c>
-      <c r="AU4" s="82">
+      <c r="AU4" s="76">
         <f t="shared" si="7"/>
         <v>0.75320512820512819</v>
       </c>
-      <c r="AV4" s="82">
+      <c r="AV4" s="76">
         <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
         <v>0.5477777777777777</v>
       </c>
@@ -8743,11 +8743,11 @@
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
-      <c r="AU5" s="82">
+      <c r="AU5" s="76">
         <f t="shared" si="7"/>
         <v>0.38192307692307698</v>
       </c>
-      <c r="AV5" s="82">
+      <c r="AV5" s="76">
         <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
         <v>0.3725</v>
       </c>
@@ -8895,11 +8895,11 @@
         <f t="shared" si="1"/>
         <v>0.76888888888888884</v>
       </c>
-      <c r="AU6" s="82">
+      <c r="AU6" s="76">
         <f t="shared" si="7"/>
         <v>0.93500000000000005</v>
       </c>
-      <c r="AV6" s="82">
+      <c r="AV6" s="76">
         <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
         <v>1.0877777777777777</v>
       </c>
@@ -9035,11 +9035,11 @@
         <f t="shared" si="1"/>
         <v>0.41222222222222221</v>
       </c>
-      <c r="AU7" s="82">
+      <c r="AU7" s="76">
         <f t="shared" si="7"/>
         <v>0.61102564102564105</v>
       </c>
-      <c r="AV7" s="82">
+      <c r="AV7" s="76">
         <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
         <v>0.44944444444444442</v>
       </c>
@@ -9175,11 +9175,11 @@
         <f t="shared" si="1"/>
         <v>0.17222222222222222</v>
       </c>
-      <c r="AU8" s="82">
+      <c r="AU8" s="76">
         <f t="shared" si="7"/>
         <v>0.60769230769230775</v>
       </c>
-      <c r="AV8" s="82">
+      <c r="AV8" s="76">
         <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
         <v>0.54194444444444445</v>
       </c>
@@ -9323,11 +9323,11 @@
         <f t="shared" si="1"/>
         <v>0.43833333333333335</v>
       </c>
-      <c r="AU9" s="82">
+      <c r="AU9" s="76">
         <f t="shared" si="7"/>
         <v>0.94666666666666666</v>
       </c>
-      <c r="AV9" s="82">
+      <c r="AV9" s="76">
         <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
         <v>0.64916666666666667</v>
       </c>
@@ -9459,11 +9459,11 @@
         <f t="shared" si="1"/>
         <v>0.18611111111111112</v>
       </c>
-      <c r="AU10" s="82">
+      <c r="AU10" s="76">
         <f t="shared" si="7"/>
         <v>0.57038461538461538</v>
       </c>
-      <c r="AV10" s="82">
+      <c r="AV10" s="76">
         <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
         <v>0.60972222222222228</v>
       </c>
@@ -9595,11 +9595,11 @@
         <f t="shared" si="1"/>
         <v>0.17833333333333334</v>
       </c>
-      <c r="AU11" s="82">
+      <c r="AU11" s="76">
         <f t="shared" si="7"/>
         <v>0.42153846153846158</v>
       </c>
-      <c r="AV11" s="82">
+      <c r="AV11" s="76">
         <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
         <v>0.53166666666666673</v>
       </c>
@@ -9737,11 +9737,11 @@
         <f t="shared" si="1"/>
         <v>0.43611111111111112</v>
       </c>
-      <c r="AU12" s="82">
+      <c r="AU12" s="76">
         <f t="shared" si="7"/>
         <v>0.75602564102564107</v>
       </c>
-      <c r="AV12" s="82">
+      <c r="AV12" s="76">
         <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
         <v>0.6447222222222222</v>
       </c>
@@ -9879,11 +9879,11 @@
         <f t="shared" si="1"/>
         <v>0.68611111111111112</v>
       </c>
-      <c r="AU13" s="82">
+      <c r="AU13" s="76">
         <f t="shared" si="7"/>
         <v>0.57269230769230772</v>
       </c>
-      <c r="AV13" s="82">
+      <c r="AV13" s="76">
         <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
         <v>0.72222222222222221</v>
       </c>
@@ -10023,11 +10023,11 @@
         <f t="shared" si="1"/>
         <v>0.42000000000000004</v>
       </c>
-      <c r="AU14" s="82">
+      <c r="AU14" s="76">
         <f t="shared" si="7"/>
         <v>0.89102564102564097</v>
       </c>
-      <c r="AV14" s="82">
+      <c r="AV14" s="76">
         <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
         <v>0.51</v>
       </c>
@@ -10169,11 +10169,11 @@
         <f t="shared" si="1"/>
         <v>0.46666666666666667</v>
       </c>
-      <c r="AU15" s="82">
+      <c r="AU15" s="76">
         <f t="shared" si="7"/>
         <v>0.67717948717948728</v>
       </c>
-      <c r="AV15" s="82">
+      <c r="AV15" s="76">
         <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
         <v>0.67333333333333334</v>
       </c>
@@ -10309,11 +10309,11 @@
         <f t="shared" si="1"/>
         <v>0.69444444444444442</v>
       </c>
-      <c r="AU16" s="82">
+      <c r="AU16" s="76">
         <f t="shared" si="7"/>
         <v>0.57935897435897443</v>
       </c>
-      <c r="AV16" s="82">
+      <c r="AV16" s="76">
         <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
         <v>0.83888888888888891</v>
       </c>
@@ -10449,11 +10449,11 @@
         <f t="shared" si="1"/>
         <v>0.41111111111111109</v>
       </c>
-      <c r="AU17" s="82">
+      <c r="AU17" s="76">
         <f t="shared" si="7"/>
         <v>0.78538461538461546</v>
       </c>
-      <c r="AV17" s="82">
+      <c r="AV17" s="76">
         <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
         <v>0.4597222222222222</v>
       </c>
@@ -10587,11 +10587,11 @@
         <f t="shared" si="1"/>
         <v>0.15888888888888889</v>
       </c>
-      <c r="AU18" s="82">
+      <c r="AU18" s="76">
         <f t="shared" si="7"/>
         <v>0.56153846153846165</v>
       </c>
-      <c r="AV18" s="82">
+      <c r="AV18" s="76">
         <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
         <v>0.44277777777777783</v>
       </c>
@@ -10721,11 +10721,11 @@
         <f t="shared" si="1"/>
         <v>0.17888888888888888</v>
       </c>
-      <c r="AU19" s="82">
+      <c r="AU19" s="76">
         <f t="shared" si="7"/>
         <v>0.52923076923076928</v>
       </c>
-      <c r="AV19" s="82">
+      <c r="AV19" s="76">
         <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
         <v>0.55777777777777771</v>
       </c>
@@ -10859,11 +10859,11 @@
         <f t="shared" si="1"/>
         <v>0.46388888888888891</v>
       </c>
-      <c r="AU20" s="82">
+      <c r="AU20" s="76">
         <f t="shared" si="7"/>
         <v>0.66653846153846152</v>
       </c>
-      <c r="AV20" s="82">
+      <c r="AV20" s="76">
         <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
         <v>0.67277777777777781</v>
       </c>
@@ -10979,11 +10979,11 @@
         <f t="shared" si="1"/>
         <v>0.76611111111111108</v>
       </c>
-      <c r="AU21" s="82">
+      <c r="AU21" s="76">
         <f t="shared" si="7"/>
         <v>0.38461538461538458</v>
       </c>
-      <c r="AV21" s="82">
+      <c r="AV21" s="76">
         <f>(Table1[[#This Row],[Potência(cv)]] / 200 + Table1[[#This Row],[Torque (kgf.m)]] / 45) / 2</f>
         <v>1.0322222222222222</v>
       </c>
@@ -11001,8 +11001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
